--- a/Power BI/Data processing results.xlsx
+++ b/Power BI/Data processing results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rifqi\Documents\Libur smt3\Power BI\Project\Power BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CE4762-FDC3-4A28-B914-97B98278D19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8207A883-D31C-4D4B-BCAE-93E5957D5562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A5BA2A13-AA93-42AE-91CE-D48F78648A9A}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AA135B-DF43-4AF9-A540-BCABD672CE7B}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,7 +586,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF96AB40-60DB-4E79-819D-2A0F10CCEC56}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1060,7 +1060,7 @@
         <v>Electronics</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G4" si="0">SUMIFS($C:$C,$B:$B,F3,$A:$A,E3)</f>
+        <f>SUMIFS($C:$C,$B:$B,F3,$A:$A,E3)</f>
         <v>81000</v>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
         <v>Furniture</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G4" si="0">SUMIFS($C:$C,$B:$B,F4,$A:$A,E4)</f>
         <v>98000</v>
       </c>
     </row>
